--- a/AppV2/App_Data/reportes/plantilla_reporte/repoteGeneral.xlsx
+++ b/AppV2/App_Data/reportes/plantilla_reporte/repoteGeneral.xlsx
@@ -29,9 +29,6 @@
     <t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</t>
   </si>
   <si>
-    <t>(En Nuevos Soles)</t>
-  </si>
-  <si>
     <t>C.C.</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>SET</t>
+  </si>
+  <si>
+    <t>(En Soles)</t>
   </si>
 </sst>
 </file>
@@ -153,16 +153,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -170,9 +173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +478,7 @@
   <dimension ref="B2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,38 +491,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -547,7 +547,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -567,85 +567,85 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
